--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:11:05+00:00</t>
+    <t>2022-04-15T19:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-15T19:26:54+00:00</t>
+    <t>2022-04-18T13:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:39:40+00:00</t>
+    <t>2022-04-18T13:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:50:56+00:00</t>
+    <t>2022-04-18T13:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T13:55:40+00:00</t>
+    <t>2022-04-18T14:09:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>observationExtract</t>
+    <t>Extension : observationExtract</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:09:42+00:00</t>
+    <t>2022-04-18T14:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:34:01+00:00</t>
+    <t>2022-04-18T14:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:36:39+00:00</t>
+    <t>2022-04-18T14:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:49:47+00:00</t>
+    <t>2022-04-18T14:59:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T14:59:18+00:00</t>
+    <t>2022-04-19T16:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/observation-Extract</t>
+    <t>http://science37.com/fhir/StructureDefinition/observation-Extract</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:43:07+00:00</t>
+    <t>2022-04-19T16:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:57:06+00:00</t>
+    <t>2022-04-19T19:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:13:12+00:00</t>
+    <t>2022-04-19T19:15:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:15:24+00:00</t>
+    <t>2022-04-19T19:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:24:07+00:00</t>
+    <t>2022-04-19T19:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T19:32:38+00:00</t>
+    <t>2022-04-19T20:00:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:00:50+00:00</t>
+    <t>2022-04-19T20:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-observation-Extract.xlsx
+++ b/StructureDefinition-observation-Extract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T20:15:26+00:00</t>
+    <t>2022-04-21T13:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
